--- a/Vantheav_Thav_Class2021_Weekly Work Log .xlsx
+++ b/Vantheav_Thav_Class2021_Weekly Work Log .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\AllData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\AllData\MyAllData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{664F6D23-CABB-4AE6-A40B-9DF8403EB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF6A6B9-B050-4D3D-9732-1C86ED5B4C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example" sheetId="18" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="158">
   <si>
     <t>Date</t>
   </si>
@@ -127,9 +127,6 @@
     <t>CLASS2017: INTERNSHIP WEEKLY WORK LOG</t>
   </si>
   <si>
-    <t>CLASS2020: INTERNSHIP WEEKLY WORK LOG</t>
-  </si>
-  <si>
     <t xml:space="preserve">prepare place and chair </t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>researching about passport and security in laravel</t>
   </si>
   <si>
-    <t>practict and edit some code in laravel</t>
-  </si>
-  <si>
     <t>researching about component in  vue js</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>Create components vue js</t>
   </si>
   <si>
-    <t xml:space="preserve">researching about vuetify </t>
-  </si>
-  <si>
     <t xml:space="preserve">researching about component in vuetify </t>
   </si>
   <si>
@@ -302,6 +293,249 @@
   </si>
   <si>
     <t>Reflections for this week:  for the week it just like the previous week.</t>
+  </si>
+  <si>
+    <t>Permission (ឈឺភ្នេក)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Create External vue components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get new idea from internet </t>
+  </si>
+  <si>
+    <t>Create external component is a thing that I never know in our school</t>
+  </si>
+  <si>
+    <t>Meeting with supervisor and COO</t>
+  </si>
+  <si>
+    <t>In this meeting show me about my mistak and thay explain me how to manage my times and tasks.</t>
+  </si>
+  <si>
+    <t>Create vueX life cycle</t>
+  </si>
+  <si>
+    <t>Research about VueX</t>
+  </si>
+  <si>
+    <t>Understand about concept VueX</t>
+  </si>
+  <si>
+    <t>Some methods I did not know before</t>
+  </si>
+  <si>
+    <t>Search and asked staff</t>
+  </si>
+  <si>
+    <t>Search about VueX</t>
+  </si>
+  <si>
+    <t>Search about VueX (state)</t>
+  </si>
+  <si>
+    <t>Research about VueX (state management)</t>
+  </si>
+  <si>
+    <t>I knew about state management(vueX) like data(Vue instant)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Practict on vueX( state management)</t>
+  </si>
+  <si>
+    <t>Create a project that have vueX and Vuetify</t>
+  </si>
+  <si>
+    <t>I can use vueX but not very good</t>
+  </si>
+  <si>
+    <t>watch Video and some documents from internet</t>
+  </si>
+  <si>
+    <t>New things for me</t>
+  </si>
+  <si>
+    <t>practict on vueX( mutations)</t>
+  </si>
+  <si>
+    <t>Practict on vueX (mutation)</t>
+  </si>
+  <si>
+    <t>Mutation like methods in Vue instant</t>
+  </si>
+  <si>
+    <t>push in repository for supervisor</t>
+  </si>
+  <si>
+    <t>I did with actions and getters in VueX and push to repo</t>
+  </si>
+  <si>
+    <t>I knew when we use getter and actions and use for what.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create button components </t>
+  </si>
+  <si>
+    <t>Use button components with another components.</t>
+  </si>
+  <si>
+    <t>Button component is the same with form component.</t>
+  </si>
+  <si>
+    <t>We use it the same Form component.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create dashboard component. </t>
+  </si>
+  <si>
+    <t>use dashboard component with another components.</t>
+  </si>
+  <si>
+    <t>Review the component</t>
+  </si>
+  <si>
+    <t>Edit form component</t>
+  </si>
+  <si>
+    <t>I found a mistake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change some mistake to standart code. </t>
+  </si>
+  <si>
+    <t>Reflections for this week: for this week, I just review about vueX and Vue lifecycle with the components.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reseach about Jquery </t>
+  </si>
+  <si>
+    <t>Jquery is useful for effect</t>
+  </si>
+  <si>
+    <t>New things that I never know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search </t>
+  </si>
+  <si>
+    <t>Research about website builder</t>
+  </si>
+  <si>
+    <t>Just research</t>
+  </si>
+  <si>
+    <t>Research about Jquery (hide and show function)</t>
+  </si>
+  <si>
+    <t>Practice on Jquery (hide and show function)</t>
+  </si>
+  <si>
+    <t>I knew how to use hide and show function in Jquery.</t>
+  </si>
+  <si>
+    <t>Research about drappable and droppable in Jquery.</t>
+  </si>
+  <si>
+    <t>Practice on Jquery (draggable and droppable function)</t>
+  </si>
+  <si>
+    <t>I knew how to use draggable and droppable in Jquery after I practice.</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research about Resizable function in Jquery </t>
+  </si>
+  <si>
+    <t>Get new idea from searching .</t>
+  </si>
+  <si>
+    <t>practice on Resizable function and use it with Html file.</t>
+  </si>
+  <si>
+    <t>Resizable is useful for build website builder.</t>
+  </si>
+  <si>
+    <t>Practice and get some codes from internet.</t>
+  </si>
+  <si>
+    <t>Confused some of keyword when I searched.</t>
+  </si>
+  <si>
+    <t>I don't know how to use it with vuetify or vue js.</t>
+  </si>
+  <si>
+    <t>Research about Sortable function in Jquery.</t>
+  </si>
+  <si>
+    <t>I knew we use it for some filter in website builder.</t>
+  </si>
+  <si>
+    <t>Get code example from internet.</t>
+  </si>
+  <si>
+    <t>Practice on Sortable function in Jquery with Html file.</t>
+  </si>
+  <si>
+    <t>More clear than reseaching.</t>
+  </si>
+  <si>
+    <t>I try to research "how to use jquery with vue js).</t>
+  </si>
+  <si>
+    <t>Just get some ideas</t>
+  </si>
+  <si>
+    <t>Still can not use Jquery with vue js.</t>
+  </si>
+  <si>
+    <t>Reflections for this week: for this week, I just search only jquery because I need to prepare it for project that come to me soon (website builder).</t>
+  </si>
+  <si>
+    <t>Reseach about Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a smile project </t>
+  </si>
+  <si>
+    <t>Add some feature to the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permission </t>
+  </si>
+  <si>
+    <t>Know more detail about hide and show</t>
+  </si>
+  <si>
+    <t>Create a smile project with hide and show</t>
+  </si>
+  <si>
+    <t>Drag and drop</t>
+  </si>
+  <si>
+    <t>Add function drag and drop to a smale project.</t>
+  </si>
+  <si>
+    <t>Resizable</t>
+  </si>
+  <si>
+    <t>Add function resizable to the smale project.</t>
+  </si>
+  <si>
+    <t>About accordion</t>
+  </si>
+  <si>
+    <t>Try to practice with accordion function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflections for this week: this week I just search and created a smale project with some feature. </t>
   </si>
 </sst>
 </file>
@@ -359,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -391,11 +625,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -426,6 +686,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,9 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1276,7 +1546,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1315,10 +1585,18 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
@@ -1336,10 +1614,14 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
@@ -1357,10 +1639,18 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -1378,10 +1668,16 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -1399,10 +1695,18 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
@@ -1420,10 +1724,18 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
@@ -1441,10 +1753,18 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
@@ -1462,10 +1782,18 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
@@ -1483,10 +1811,18 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
@@ -1504,10 +1840,18 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
@@ -1581,7 +1925,7 @@
     </row>
     <row r="17" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1734,7 +2078,7 @@
       <c r="Q24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A4:A5"/>
@@ -1742,6 +2086,9 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1752,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,7 +2116,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1808,10 +2155,18 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
@@ -1829,10 +2184,16 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
@@ -1850,10 +2211,16 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -1871,10 +2238,16 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
@@ -1892,10 +2265,14 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
@@ -1913,10 +2290,14 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
@@ -1934,10 +2315,16 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
@@ -1955,10 +2342,16 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
@@ -1976,10 +2369,16 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
@@ -1997,10 +2396,16 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
@@ -2074,7 +2479,7 @@
     </row>
     <row r="17" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2245,9 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2262,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2738,9 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2755,7 +3156,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3231,9 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3248,7 +3647,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3724,9 +4123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3741,7 +4138,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4217,9 +4614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4234,7 +4629,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4710,9 +5105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4727,7 +5120,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4804,7 +5197,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4825,7 +5218,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4846,7 +5239,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -4867,7 +5260,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -4888,7 +5281,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4909,7 +5302,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -5204,7 +5597,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5220,7 +5613,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5258,9 +5651,7 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -5281,9 +5672,7 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -5304,9 +5693,7 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5327,9 +5714,7 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -5350,9 +5735,7 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -5373,9 +5756,7 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -5396,9 +5777,7 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5419,9 +5798,7 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -5442,9 +5819,7 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -5728,7 +6103,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5768,7 +6143,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5791,7 +6166,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5814,10 +6189,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -5839,10 +6214,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -5864,10 +6239,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -5889,10 +6264,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -5914,10 +6289,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -5939,7 +6314,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5962,10 +6337,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -5987,10 +6362,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -6067,7 +6442,7 @@
     </row>
     <row r="17" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6255,7 +6630,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6295,14 +6670,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -6322,14 +6697,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -6349,14 +6724,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -6376,12 +6751,12 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -6401,14 +6776,14 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -6428,14 +6803,14 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -6455,12 +6830,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6480,7 +6855,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6503,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6526,7 +6901,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6604,7 +6979,7 @@
     </row>
     <row r="17" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6775,7 +7150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6792,7 +7167,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6832,12 +7207,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -6857,14 +7232,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -6884,7 +7259,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -6907,11 +7282,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -6932,7 +7307,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6955,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6978,10 +7353,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -7003,10 +7378,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -7028,7 +7403,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -7051,7 +7426,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7129,7 +7504,7 @@
     </row>
     <row r="17" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7793,8 +8168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,7 +8185,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7849,11 +8224,21 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -7870,11 +8255,21 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -7891,10 +8286,18 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
@@ -7912,11 +8315,19 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -7933,11 +8344,21 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -7954,11 +8375,21 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -7975,11 +8406,21 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -7996,11 +8437,21 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -8017,11 +8468,21 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -8038,11 +8499,21 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -9272,8 +9743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9289,7 +9760,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9328,9 +9799,15 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -9349,9 +9826,15 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -9370,9 +9853,15 @@
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -9391,9 +9880,13 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -9412,9 +9905,15 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -9433,9 +9932,15 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -9454,9 +9959,15 @@
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -9475,9 +9986,15 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -9496,9 +10013,15 @@
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -9517,10 +10040,18 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="1"/>
@@ -9594,7 +10125,7 @@
     </row>
     <row r="17" spans="1:17" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
